--- a/2021/gabban_dates.xlsx
+++ b/2021/gabban_dates.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>date</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>senior jhoti</t>
+  </si>
+  <si>
+    <t>cow suraj miani</t>
   </si>
 </sst>
 </file>
@@ -204,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -228,6 +231,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -526,7 +531,7 @@
   <dimension ref="A1:BC38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -611,14 +616,14 @@
       <c r="BC1" s="13"/>
     </row>
     <row r="2" spans="1:55">
-      <c r="A2" s="15">
+      <c r="A2" s="23">
         <v>44540</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="15">
-        <v>44540</v>
+        <v>44481</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>23</v>
@@ -672,14 +677,14 @@
       <c r="AZ2" s="8"/>
     </row>
     <row r="3" spans="1:55">
-      <c r="A3" s="15">
+      <c r="A3" s="23">
         <v>44550</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="15">
-        <v>44207</v>
+        <v>44501</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>24</v>
@@ -844,7 +849,7 @@
     </row>
     <row r="6" spans="1:55">
       <c r="A6" s="15">
-        <v>44450</v>
+        <v>44545</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>8</v>
@@ -953,7 +958,12 @@
       <c r="AZ7" s="8"/>
     </row>
     <row r="8" spans="1:55">
-      <c r="A8" s="15"/>
+      <c r="A8" s="15">
+        <v>44551</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -1003,7 +1013,12 @@
       <c r="AZ8" s="8"/>
     </row>
     <row r="9" spans="1:55">
-      <c r="A9" s="15"/>
+      <c r="A9" s="15">
+        <v>44551</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
